--- a/DDAf_2024_Tableau_annexe_Tab28.xlsx
+++ b/DDAf_2024_Tableau_annexe_Tab28.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{349DCFAB-4631-4DD0-BF0D-D1E2EEAE4735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{32D4271E-1F0B-4663-A099-EAA034900389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{D41A6D10-A11D-4469-97E9-3D58EA273CE7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9FE1581B-D763-4031-968A-B76B4B5B936E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab28" sheetId="1" r:id="rId1"/>
@@ -1454,20 +1454,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9A99443-CDDC-414F-9657-69485D84E69B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0EA7B3F-A996-47C7-B8F2-682F3BF843E0}">
   <dimension ref="A1:N114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" style="76" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="76" bestFit="1" customWidth="1"/>
+    <col min="4" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1484,7 +1484,7 @@
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
     </row>
-    <row r="2" spans="1:14" ht="84.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" ht="102" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1528,7 +1528,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>15</v>
       </c>
@@ -1572,7 +1572,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>18</v>
       </c>
@@ -1616,7 +1616,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>20</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>22</v>
       </c>
@@ -1704,7 +1704,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>24</v>
       </c>
@@ -1748,7 +1748,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>26</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>28</v>
       </c>
@@ -1836,7 +1836,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>30</v>
       </c>
@@ -1880,7 +1880,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>32</v>
       </c>
@@ -1924,7 +1924,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>34</v>
       </c>
@@ -1968,7 +1968,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="27" t="s">
         <v>36</v>
       </c>
@@ -2012,7 +2012,7 @@
         <v>268.52689847984902</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>38</v>
       </c>
@@ -2056,7 +2056,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>40</v>
       </c>
@@ -2100,7 +2100,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>42</v>
       </c>
@@ -2144,7 +2144,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>44</v>
       </c>
@@ -2188,7 +2188,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>46</v>
       </c>
@@ -2232,7 +2232,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>48</v>
       </c>
@@ -2276,7 +2276,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>50</v>
       </c>
@@ -2320,7 +2320,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>52</v>
       </c>
@@ -2364,7 +2364,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>54</v>
       </c>
@@ -2408,7 +2408,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="27" t="s">
         <v>36</v>
       </c>
@@ -2452,7 +2452,7 @@
         <v>314.31396550782398</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>57</v>
       </c>
@@ -2496,7 +2496,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>59</v>
       </c>
@@ -2540,7 +2540,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>61</v>
       </c>
@@ -2584,7 +2584,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>63</v>
       </c>
@@ -2628,7 +2628,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>65</v>
       </c>
@@ -2672,7 +2672,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>67</v>
       </c>
@@ -2716,7 +2716,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>69</v>
       </c>
@@ -2760,7 +2760,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>71</v>
       </c>
@@ -2804,7 +2804,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>73</v>
       </c>
@@ -2848,7 +2848,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>75</v>
       </c>
@@ -2892,7 +2892,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>77</v>
       </c>
@@ -2936,7 +2936,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>79</v>
       </c>
@@ -2980,7 +2980,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>81</v>
       </c>
@@ -3024,7 +3024,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
         <v>83</v>
       </c>
@@ -3068,7 +3068,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="27" t="s">
         <v>36</v>
       </c>
@@ -3112,7 +3112,7 @@
         <v>278.89955633655597</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>86</v>
       </c>
@@ -3156,7 +3156,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
         <v>88</v>
       </c>
@@ -3200,7 +3200,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
         <v>90</v>
       </c>
@@ -3244,7 +3244,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
         <v>92</v>
       </c>
@@ -3288,7 +3288,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
         <v>94</v>
       </c>
@@ -3332,7 +3332,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
         <v>96</v>
       </c>
@@ -3376,7 +3376,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="27" t="s">
         <v>36</v>
       </c>
@@ -3420,7 +3420,7 @@
         <v>202.50032828328</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
         <v>99</v>
       </c>
@@ -3464,7 +3464,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
         <v>101</v>
       </c>
@@ -3508,7 +3508,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
         <v>103</v>
       </c>
@@ -3552,7 +3552,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
         <v>105</v>
       </c>
@@ -3596,7 +3596,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
         <v>107</v>
       </c>
@@ -3640,7 +3640,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
         <v>109</v>
       </c>
@@ -3684,7 +3684,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
         <v>111</v>
       </c>
@@ -3728,7 +3728,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
         <v>113</v>
       </c>
@@ -3772,7 +3772,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
         <v>115</v>
       </c>
@@ -3816,7 +3816,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
         <v>117</v>
       </c>
@@ -3860,7 +3860,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
         <v>119</v>
       </c>
@@ -3904,7 +3904,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
         <v>121</v>
       </c>
@@ -3948,7 +3948,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
         <v>123</v>
       </c>
@@ -3992,7 +3992,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
         <v>125</v>
       </c>
@@ -4036,7 +4036,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
         <v>127</v>
       </c>
@@ -4080,7 +4080,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="27"/>
       <c r="B61" s="28" t="s">
         <v>129</v>
@@ -4122,7 +4122,7 @@
         <v>315.03725402507098</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="45"/>
       <c r="B62" s="46" t="s">
         <v>130</v>
@@ -4164,7 +4164,7 @@
         <v>258.10655767002697</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="45"/>
       <c r="B63" s="50" t="s">
         <v>131</v>
@@ -4206,7 +4206,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="54"/>
       <c r="B64" s="55" t="s">
         <v>132</v>
@@ -4248,7 +4248,7 @@
         <v>138.68440947428701</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="54"/>
       <c r="B65" s="50" t="s">
         <v>133</v>
@@ -4290,7 +4290,7 @@
         <v>182.36218342098601</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="54"/>
       <c r="B66" s="62" t="s">
         <v>134</v>
@@ -4332,7 +4332,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="54"/>
       <c r="B67" s="50" t="s">
         <v>135</v>
@@ -4374,7 +4374,7 @@
         <v>241.012039839479</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="54"/>
       <c r="B68" s="50" t="s">
         <v>136</v>
@@ -4416,7 +4416,7 @@
         <v>243.236699984647</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="54"/>
       <c r="B69" s="50" t="s">
         <v>137</v>
@@ -4458,7 +4458,7 @@
         <v>288.920959908616</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="54"/>
       <c r="B70" s="50" t="s">
         <v>138</v>
@@ -4500,7 +4500,7 @@
         <v>403.14083606706799</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="54"/>
       <c r="B71" s="50" t="s">
         <v>139</v>
@@ -4542,7 +4542,7 @@
         <v>315.03725402507098</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="54"/>
       <c r="B72" s="50" t="s">
         <v>140</v>
@@ -4584,7 +4584,7 @@
         <v>267.43481438409498</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="54"/>
       <c r="B73" s="50" t="s">
         <v>141</v>
@@ -4626,7 +4626,7 @@
         <v>272.60654783833502</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="54"/>
       <c r="B74" s="50" t="s">
         <v>141</v>
@@ -4668,7 +4668,7 @@
         <v>211.71930806236901</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="54"/>
       <c r="B75" s="50" t="s">
         <v>142</v>
@@ -4710,7 +4710,7 @@
         <v>438.86334080663198</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="54"/>
       <c r="B76" s="66" t="s">
         <v>143</v>
@@ -4752,7 +4752,7 @@
         <v>172.96059628277899</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="54"/>
       <c r="B77" s="50" t="s">
         <v>144</v>
@@ -4794,7 +4794,7 @@
         <v>178.18885772583999</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="54"/>
       <c r="B78" s="50" t="s">
         <v>144</v>
@@ -4836,7 +4836,7 @@
         <v>174.84315990939101</v>
       </c>
     </row>
-    <row r="79" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="54"/>
       <c r="B79" s="62" t="s">
         <v>145</v>
@@ -4878,7 +4878,7 @@
         <v>182.56481656420399</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="54"/>
       <c r="B80" s="50" t="s">
         <v>146</v>
@@ -4920,7 +4920,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="54"/>
       <c r="B81" s="50" t="s">
         <v>147</v>
@@ -4962,7 +4962,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="54"/>
       <c r="B82" s="50" t="s">
         <v>148</v>
@@ -5004,7 +5004,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="54"/>
       <c r="B83" s="50" t="s">
         <v>149</v>
@@ -5046,7 +5046,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="54"/>
       <c r="B84" s="66" t="s">
         <v>150</v>
@@ -5088,7 +5088,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="54"/>
       <c r="B85" s="70" t="s">
         <v>151</v>
@@ -5130,7 +5130,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="54"/>
       <c r="B86" s="50" t="s">
         <v>152</v>
@@ -5172,7 +5172,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="54"/>
       <c r="B87" s="50" t="s">
         <v>153</v>
@@ -5214,7 +5214,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="54"/>
       <c r="B88" s="50" t="s">
         <v>154</v>
@@ -5256,7 +5256,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="54"/>
       <c r="B89" s="50" t="s">
         <v>155</v>
@@ -5298,7 +5298,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="90" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="54"/>
       <c r="B90" s="62" t="s">
         <v>156</v>
@@ -5340,7 +5340,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="54"/>
       <c r="B91" s="50" t="s">
         <v>157</v>
@@ -5382,7 +5382,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="54"/>
       <c r="B92" s="50" t="s">
         <v>158</v>
@@ -5424,7 +5424,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="54"/>
       <c r="B93" s="50" t="s">
         <v>159</v>
@@ -5466,7 +5466,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="54"/>
       <c r="B94" s="50" t="s">
         <v>160</v>
@@ -5508,7 +5508,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="54"/>
       <c r="B95" s="50" t="s">
         <v>161</v>
@@ -5550,7 +5550,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="96" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="54"/>
       <c r="B96" s="50" t="s">
         <v>162</v>
@@ -5592,7 +5592,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="54"/>
       <c r="B97" s="66" t="s">
         <v>163</v>
@@ -5634,7 +5634,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="98" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="54"/>
       <c r="B98" s="62" t="s">
         <v>164</v>
@@ -5676,7 +5676,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="71"/>
       <c r="B99" s="72"/>
       <c r="C99" s="52"/>
@@ -5692,7 +5692,7 @@
       <c r="M99" s="52"/>
       <c r="N99" s="52"/>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>165</v>
       </c>
@@ -5709,7 +5709,7 @@
       <c r="M100" s="73"/>
       <c r="N100" s="73"/>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>166</v>
       </c>
@@ -5726,7 +5726,7 @@
       <c r="M101" s="73"/>
       <c r="N101" s="73"/>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>167</v>
       </c>
@@ -5743,7 +5743,7 @@
       <c r="M102" s="73"/>
       <c r="N102" s="73"/>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>168</v>
       </c>
@@ -5760,7 +5760,7 @@
       <c r="M103" s="73"/>
       <c r="N103" s="73"/>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>169</v>
       </c>
@@ -5777,7 +5777,7 @@
       <c r="M104" s="73"/>
       <c r="N104" s="73"/>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C105" s="73"/>
       <c r="D105" s="73"/>
       <c r="E105" s="73"/>
@@ -5791,7 +5791,7 @@
       <c r="M105" s="73"/>
       <c r="N105" s="73"/>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B106" s="74"/>
       <c r="C106" s="73"/>
       <c r="D106" s="73"/>
@@ -5806,7 +5806,7 @@
       <c r="M106" s="73"/>
       <c r="N106" s="73"/>
     </row>
-    <row r="107" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B107" s="75" t="s">
         <v>170</v>
       </c>
@@ -5823,7 +5823,7 @@
       <c r="M107" s="73"/>
       <c r="N107" s="73"/>
     </row>
-    <row r="108" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B108" s="75"/>
       <c r="C108" s="73"/>
       <c r="D108" s="73"/>
@@ -5838,7 +5838,7 @@
       <c r="M108" s="73"/>
       <c r="N108" s="73"/>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B109" s="2" t="s">
         <v>172</v>
       </c>
@@ -5855,7 +5855,7 @@
       <c r="M109" s="73"/>
       <c r="N109" s="73"/>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B110" s="2" t="s">
         <v>173</v>
       </c>
@@ -5872,7 +5872,7 @@
       <c r="M110" s="73"/>
       <c r="N110" s="73"/>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B111" s="77" t="s">
         <v>174</v>
       </c>
@@ -5889,7 +5889,7 @@
       <c r="M111" s="73"/>
       <c r="N111" s="73"/>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B112" s="2" t="s">
         <v>171</v>
       </c>
@@ -5906,7 +5906,7 @@
       <c r="M112" s="73"/>
       <c r="N112" s="73"/>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B113" s="2"/>
       <c r="C113" s="73"/>
       <c r="D113" s="73"/>
@@ -5921,7 +5921,7 @@
       <c r="M113" s="73"/>
       <c r="N113" s="73"/>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B114" s="2"/>
       <c r="C114" s="73"/>
       <c r="D114" s="73"/>
@@ -5938,11 +5938,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{56947066-DE12-446A-88D5-C7C8439FE602}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{C5882A9D-7D20-4B44-8F96-F0BDD6431728}"/>
-    <hyperlink ref="B112" r:id="rId3" xr:uid="{3380B7E5-9F2E-4294-9A00-5D2B43BF02AE}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{31534F88-DFFD-4626-A81B-43EB8BFEDF35}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{69CEC755-5D33-4CC9-9AA1-39E36C0A3B76}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{AE881CF1-B254-423D-953A-578A12A8BFF6}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{C8C0DE39-EA5A-438D-8DF7-E4B0630C1DCF}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{08679E4C-6B55-45A4-B3D5-76014104967D}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{F81ADA9C-8DBE-47A8-8A8B-88C795990566}"/>
+    <hyperlink ref="B111" r:id="rId5" xr:uid="{FD613E24-7D68-4179-A56E-F6CF422E58E8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="83" orientation="portrait" r:id="rId6"/>

--- a/DDAf_2024_Tableau_annexe_Tab28.xlsx
+++ b/DDAf_2024_Tableau_annexe_Tab28.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32D4271E-1F0B-4663-A099-EAA034900389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BEFA48E-645D-4BF7-8579-4D38C7E00082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9FE1581B-D763-4031-968A-B76B4B5B936E}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{901FBDAF-9432-46EF-B988-D4C86423C9A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab28" sheetId="1" r:id="rId1"/>
@@ -571,7 +571,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -696,13 +696,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFD42C2D"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -918,7 +911,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1135,10 +1128,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1454,7 +1446,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0EA7B3F-A996-47C7-B8F2-682F3BF843E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89BC90B2-A5DC-4C58-926E-F3D2A974C84B}">
   <dimension ref="A1:N114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
@@ -5792,7 +5784,6 @@
       <c r="N105" s="73"/>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B106" s="74"/>
       <c r="C106" s="73"/>
       <c r="D106" s="73"/>
       <c r="E106" s="73"/>
@@ -5807,7 +5798,7 @@
       <c r="N106" s="73"/>
     </row>
     <row r="107" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B107" s="75" t="s">
+      <c r="B107" s="74" t="s">
         <v>170</v>
       </c>
       <c r="C107" s="73"/>
@@ -5824,7 +5815,7 @@
       <c r="N107" s="73"/>
     </row>
     <row r="108" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B108" s="75"/>
+      <c r="B108" s="74"/>
       <c r="C108" s="73"/>
       <c r="D108" s="73"/>
       <c r="E108" s="73"/>
@@ -5873,7 +5864,7 @@
       <c r="N110" s="73"/>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B111" s="77" t="s">
+      <c r="B111" s="75" t="s">
         <v>174</v>
       </c>
       <c r="C111" s="73"/>
@@ -5890,7 +5881,7 @@
       <c r="N111" s="73"/>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="75" t="s">
         <v>171</v>
       </c>
       <c r="C112" s="73"/>
@@ -5938,11 +5929,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{AE881CF1-B254-423D-953A-578A12A8BFF6}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{C8C0DE39-EA5A-438D-8DF7-E4B0630C1DCF}"/>
-    <hyperlink ref="B112" r:id="rId3" xr:uid="{08679E4C-6B55-45A4-B3D5-76014104967D}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{F81ADA9C-8DBE-47A8-8A8B-88C795990566}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{FD613E24-7D68-4179-A56E-F6CF422E58E8}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{C1669FDC-1A99-41A5-B952-8C1A7EF98D5B}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{D81A2FB0-B0F7-45DE-89A4-3B7B5626A825}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{45B5FCAE-86D4-485C-92FB-D49F024A7AA5}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{C1006515-0758-4044-AA8B-DD6B595D446E}"/>
+    <hyperlink ref="B111" r:id="rId5" xr:uid="{7343E260-4927-4417-B6F6-33D10D6A1952}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="83" orientation="portrait" r:id="rId6"/>

--- a/DDAf_2024_Tableau_annexe_Tab28.xlsx
+++ b/DDAf_2024_Tableau_annexe_Tab28.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BEFA48E-645D-4BF7-8579-4D38C7E00082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5A0D040-B82C-4EBB-94BB-BD679C3FB487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{901FBDAF-9432-46EF-B988-D4C86423C9A3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B64063CA-01B9-426C-9D37-F118F1CBF6B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab28" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="177">
   <si>
     <t>Tableau 28 : Coûts du commerce international</t>
   </si>
@@ -467,13 +467,19 @@
     <t>UMA</t>
   </si>
   <si>
+    <t>PALOP</t>
+  </si>
+  <si>
     <t>ASEAN</t>
   </si>
   <si>
     <t>MERCOSUR</t>
   </si>
   <si>
-    <t>EU28</t>
+    <t>EU27</t>
+  </si>
+  <si>
+    <t>OCDE</t>
   </si>
   <si>
     <t xml:space="preserve">Afrique, pays riches en ressources </t>
@@ -1446,7 +1452,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89BC90B2-A5DC-4C58-926E-F3D2A974C84B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FEC1528-70BC-44C3-89C4-B1CB1E7C57DA}">
   <dimension ref="A1:N114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
@@ -4621,7 +4627,7 @@
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="54"/>
       <c r="B74" s="50" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C74" s="59">
         <v>46.043654127179401</v>
@@ -4663,7 +4669,7 @@
     <row r="75" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="54"/>
       <c r="B75" s="50" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C75" s="51">
         <v>66.891931627996698</v>
@@ -4705,7 +4711,7 @@
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="54"/>
       <c r="B76" s="66" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C76" s="67" t="s">
         <v>17</v>
@@ -4747,7 +4753,7 @@
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="54"/>
       <c r="B77" s="50" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C77" s="59">
         <v>85.915169581352501</v>
@@ -4789,7 +4795,7 @@
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="54"/>
       <c r="B78" s="50" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C78" s="59">
         <v>34.3187324128901</v>
@@ -4831,7 +4837,7 @@
     <row r="79" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="54"/>
       <c r="B79" s="62" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C79" s="63">
         <v>33.485402592892797</v>
@@ -4873,7 +4879,7 @@
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="54"/>
       <c r="B80" s="50" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C80" s="59">
         <v>154.852468173435</v>
@@ -4915,7 +4921,7 @@
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="54"/>
       <c r="B81" s="50" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C81" s="59">
         <v>68.916083797982495</v>
@@ -4957,7 +4963,7 @@
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="54"/>
       <c r="B82" s="50" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C82" s="59">
         <v>61.580476223446503</v>
@@ -4999,7 +5005,7 @@
     <row r="83" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="54"/>
       <c r="B83" s="50" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C83" s="51">
         <v>39.9900149994019</v>
@@ -5041,7 +5047,7 @@
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="54"/>
       <c r="B84" s="66" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C84" s="67">
         <v>81.146351750007696</v>
@@ -5083,7 +5089,7 @@
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="54"/>
       <c r="B85" s="70" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C85" s="59" t="s">
         <v>17</v>
@@ -5125,7 +5131,7 @@
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="54"/>
       <c r="B86" s="50" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C86" s="59">
         <v>69.632505308985799</v>
@@ -5167,7 +5173,7 @@
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="54"/>
       <c r="B87" s="50" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C87" s="59">
         <v>88.356634893361104</v>
@@ -5209,7 +5215,7 @@
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="54"/>
       <c r="B88" s="50" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C88" s="59">
         <v>50.046407565495997</v>
@@ -5251,7 +5257,7 @@
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="54"/>
       <c r="B89" s="50" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C89" s="59">
         <v>58.134315187405001</v>
@@ -5293,7 +5299,7 @@
     <row r="90" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="54"/>
       <c r="B90" s="62" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C90" s="63">
         <v>33.922540462611302</v>
@@ -5335,7 +5341,7 @@
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="54"/>
       <c r="B91" s="50" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C91" s="59">
         <v>79.942392338851306</v>
@@ -5377,7 +5383,7 @@
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="54"/>
       <c r="B92" s="50" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C92" s="59">
         <v>91.225538026086198</v>
@@ -5419,7 +5425,7 @@
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="54"/>
       <c r="B93" s="50" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C93" s="59" t="s">
         <v>17</v>
@@ -5461,7 +5467,7 @@
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="54"/>
       <c r="B94" s="50" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C94" s="59">
         <v>149.00182758083599</v>
@@ -5503,7 +5509,7 @@
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="54"/>
       <c r="B95" s="50" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C95" s="59">
         <v>64.079357500450598</v>
@@ -5545,7 +5551,7 @@
     <row r="96" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="54"/>
       <c r="B96" s="50" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C96" s="51">
         <v>89.961341725477197</v>
@@ -5587,7 +5593,7 @@
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="54"/>
       <c r="B97" s="66" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C97" s="67">
         <v>83.977540999492206</v>
@@ -5629,7 +5635,7 @@
     <row r="98" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="54"/>
       <c r="B98" s="62" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C98" s="63">
         <v>96.1129098134016</v>
@@ -5686,7 +5692,7 @@
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C100" s="73"/>
       <c r="D100" s="73"/>
@@ -5703,7 +5709,7 @@
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C101" s="73"/>
       <c r="D101" s="73"/>
@@ -5720,7 +5726,7 @@
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C102" s="73"/>
       <c r="D102" s="73"/>
@@ -5737,7 +5743,7 @@
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C103" s="73"/>
       <c r="D103" s="73"/>
@@ -5754,7 +5760,7 @@
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C104" s="73"/>
       <c r="D104" s="73"/>
@@ -5799,7 +5805,7 @@
     </row>
     <row r="107" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B107" s="74" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C107" s="73"/>
       <c r="D107" s="73"/>
@@ -5831,7 +5837,7 @@
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B109" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C109" s="73"/>
       <c r="D109" s="73"/>
@@ -5848,7 +5854,7 @@
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B110" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C110" s="73"/>
       <c r="D110" s="73"/>
@@ -5865,7 +5871,7 @@
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B111" s="75" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C111" s="73"/>
       <c r="D111" s="73"/>
@@ -5882,7 +5888,7 @@
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B112" s="75" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C112" s="73"/>
       <c r="D112" s="73"/>
@@ -5929,11 +5935,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{C1669FDC-1A99-41A5-B952-8C1A7EF98D5B}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{D81A2FB0-B0F7-45DE-89A4-3B7B5626A825}"/>
-    <hyperlink ref="B112" r:id="rId3" xr:uid="{45B5FCAE-86D4-485C-92FB-D49F024A7AA5}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{C1006515-0758-4044-AA8B-DD6B595D446E}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{7343E260-4927-4417-B6F6-33D10D6A1952}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{7055A858-0EFD-43DF-922D-4A3258C4EC8F}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{A96EFB5D-921E-4429-B23C-F4620B36E34D}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{D89C5313-43A9-46D7-831A-AA9AA2458A1C}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{1CA691CD-24A3-46F2-91C7-8C3335ED6BA5}"/>
+    <hyperlink ref="B111" r:id="rId5" xr:uid="{8CF687C7-02B3-4099-AAA1-C55D265BDF84}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="83" orientation="portrait" r:id="rId6"/>
